--- a/data/trans_orig/P14B98-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B98-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9976EBE0-3F4A-4B6B-90A2-F6A1E104B625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFD86480-1E2C-47BF-9D21-E3965FB0991E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{483C3206-FDE4-4053-8941-CAE1D1198DBE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4BE9A7B1-942B-43E1-B715-AF1DB4130260}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -144,19 +144,19 @@
     <t>63,13%</t>
   </si>
   <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -165,19 +165,19 @@
     <t>36,87%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -189,7 +189,7 @@
     <t>40,2%</t>
   </si>
   <si>
-    <t>81,67%</t>
+    <t>81,06%</t>
   </si>
   <si>
     <t>37,15%</t>
@@ -198,16 +198,16 @@
     <t>39,07%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
   <si>
     <t>59,8%</t>
   </si>
   <si>
-    <t>18,33%</t>
+    <t>18,94%</t>
   </si>
   <si>
     <t>62,85%</t>
@@ -216,10 +216,10 @@
     <t>60,93%</t>
   </si>
   <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
   </si>
   <si>
     <t>66,12%</t>
@@ -243,55 +243,55 @@
     <t>67,48%</t>
   </si>
   <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>55,84%</t>
   </si>
   <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
   </si>
   <si>
     <t>62,44%</t>
   </si>
   <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
   </si>
   <si>
     <t>32,52%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
   </si>
   <si>
     <t>44,16%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
   </si>
   <si>
     <t>37,56%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
   </si>
 </sst>
 </file>
@@ -703,7 +703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D797E7-7294-4924-AA0C-F4AD11D0C2FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01526D36-5E09-43F2-A97E-5D6D6E7C2E17}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1742,7 +1742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB9C094-C06E-4A14-8469-B218C962A4BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094E1BAB-D76F-48A5-B2DC-09CBC6D31333}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B98-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B98-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFD86480-1E2C-47BF-9D21-E3965FB0991E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{724D52E5-9EB1-4330-BA56-2F8A4F343E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4BE9A7B1-942B-43E1-B715-AF1DB4130260}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D392E4A0-F28B-44A0-9665-372DED471830}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -78,7 +78,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>70,34%</t>
@@ -96,7 +96,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -114,7 +114,7 @@
     <t>49,99%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -144,19 +144,19 @@
     <t>63,13%</t>
   </si>
   <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -165,25 +165,25 @@
     <t>36,87%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya otra enfermedad le limita 2 en 2015 (Tasa respuesta: 0,32%)</t>
+    <t>Población cuya otra enfermedad le limita 2 en 2016 (Tasa respuesta: 0,32%)</t>
   </si>
   <si>
     <t>40,2%</t>
@@ -198,10 +198,10 @@
     <t>39,07%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
   </si>
   <si>
     <t>59,8%</t>
@@ -216,10 +216,10 @@
     <t>60,93%</t>
   </si>
   <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>66,12%</t>
@@ -243,55 +243,55 @@
     <t>67,48%</t>
   </si>
   <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
   </si>
   <si>
     <t>55,84%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>62,44%</t>
   </si>
   <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>32,52%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
   </si>
   <si>
     <t>44,16%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
   </si>
   <si>
     <t>37,56%</t>
   </si>
   <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
   </si>
 </sst>
 </file>
@@ -703,7 +703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01526D36-5E09-43F2-A97E-5D6D6E7C2E17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F5562D-3132-444E-AD5A-2A7A561818E9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1742,7 +1742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094E1BAB-D76F-48A5-B2DC-09CBC6D31333}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321C88E7-F874-48C5-B772-B785DC0BD92D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
